--- a/storage/app/templates/PlantillaImportacionAudiometria.xlsx
+++ b/storage/app/templates/PlantillaImportacionAudiometria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t xml:space="preserve">Identificacion</t>
   </si>
@@ -44,70 +44,103 @@
     <t xml:space="preserve">Cargo</t>
   </si>
   <si>
-    <t xml:space="preserve">EPS</t>
+    <t xml:space="preserve">EPS (Los posibles valores se encuentran en la pestaña “EPS”, se debe ingresar el codigo de la EPS)</t>
   </si>
   <si>
     <t xml:space="preserve">Regional</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha Ingreso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antecedentes(hipoacusia, otitis, ninguno)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPP (copa, inserción, moldeable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivel Exposición</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZ500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZ1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZ2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZ3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZ4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZ6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZ8000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recomendaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observaciones</t>
+    <t xml:space="preserve">Fecha Ingreso Empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos Previos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPP (Copa, Inserción, Moldeable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel Exposición – Disometría (85 a 95 dB, No realizada, Menos de 80 dB, 80 a 84.9 dB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD 4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD 6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD 8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD 4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OI 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OI 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OI 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OI 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OI 4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recomendaciones Generales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones Generales</t>
   </si>
   <si>
     <t xml:space="preserve">Codigo</t>
@@ -398,20 +431,45 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -440,12 +498,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -458,6 +536,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFE994"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFFA6A6"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,117 +604,184 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="34.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="14" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="34.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="38.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="29" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="41" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="5" customFormat="true" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K1" type="none">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L1" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -598,7 +803,7 @@
   </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -609,7 +814,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -617,346 +822,346 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/templates/PlantillaImportacionAudiometria.xlsx
+++ b/storage/app/templates/PlantillaImportacionAudiometria.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Hispanos\Thot\sauce\storage\app\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView windowWidth="19155" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="EPS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>Identificacion</t>
   </si>
@@ -33,24 +23,36 @@
     <t>Nombre</t>
   </si>
   <si>
+    <t>Sexo (M, F)</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
     <t>Fecha Nacimiento</t>
   </si>
   <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Centro de Costo</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Sede</t>
+  </si>
+  <si>
     <t>Area</t>
   </si>
   <si>
-    <t>Cargo</t>
+    <t>Proceso</t>
   </si>
   <si>
     <t>EPS (Los posibles valores se encuentran en la pestaña “EPS”, se debe ingresar el codigo de la EPS)</t>
   </si>
   <si>
-    <t>Regional</t>
-  </si>
-  <si>
     <t>Fecha Ingreso Empresa</t>
   </si>
   <si>
@@ -204,7 +206,7 @@
     <t>EPS014</t>
   </si>
   <si>
-    <t>HUMANA VIVIR S.A.  EPS  ARS</t>
+    <t>HUMANA VIVIR S.A. EPS ARS</t>
   </si>
   <si>
     <t>EPS015</t>
@@ -318,7 +320,7 @@
     <t>CCFC15</t>
   </si>
   <si>
-    <t>EPS-S  COMFACOR</t>
+    <t>EPS-S COMFACOR</t>
   </si>
   <si>
     <t>CCFC55</t>
@@ -330,7 +332,7 @@
     <t>EPSC22</t>
   </si>
   <si>
-    <t>EPS-S  CONVIDA</t>
+    <t>EPS-S CONVIDA</t>
   </si>
   <si>
     <t>EPSTC1</t>
@@ -400,24 +402,179 @@
   </si>
   <si>
     <t>Sin EPS</t>
-  </si>
-  <si>
-    <t>Sexo (M, F)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,23 +584,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE994"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA6A6"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -452,133 +795,357 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7DC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFE994"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFFA6A6"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -616,12 +1183,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -651,12 +1218,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -825,579 +1392,538 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="4" width="11.5703125"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
-    <col min="11" max="12" width="34.42578125" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
-    <col min="14" max="14" width="38.7109375" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="28" width="11.5703125"/>
-    <col min="29" max="39" width="26.140625" customWidth="1"/>
-    <col min="40" max="40" width="24.5703125" customWidth="1"/>
-    <col min="41" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="5" max="5" width="8.8" style="2"/>
+    <col min="12" max="12" width="31.1" customWidth="1"/>
+    <col min="13" max="13" width="11.9" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.8" style="2"/>
+    <col min="16" max="16" width="15.4" customWidth="1"/>
+    <col min="17" max="17" width="30.9" customWidth="1"/>
+    <col min="42" max="42" width="16.5" customWidth="1"/>
+    <col min="43" max="43" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="35" customHeight="1" spans="1:43">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="O1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="AN1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation operator="equal" allowBlank="1" showErrorMessage="1" sqref="L1">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="10.9" customWidth="1"/>
+    <col min="2" max="2" width="72.7" customWidth="1"/>
+    <col min="3" max="16384" width="10.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B13" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B16" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B21" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B22" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B23" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B26" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B27" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B29" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B30" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B31" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B32" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B33" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B34" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B35" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B36" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B37" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B38" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B39" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B40" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B41" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B44" t="s">
-        <v>124</v>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>